--- a/pred_ohlcv/54_21/2019-10-29 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>35647220.29700001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>35647210.29700001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>35440296.4166</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>35440296.4166</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>35288478.7278</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>35120403.7978</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>35537865.77810001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>35537865.77810001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>86972738.77940001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>86997481.1031</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>86997481.1031</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>86997481.1031</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>86997481.1031</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>86848424.4888</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>86849550.61490001</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>86923340.95190001</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>86577635.11150001</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>88479354.11150001</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>88924473.74080001</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>88884473.74080001</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>88884722.86650001</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>88912155.823</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>89099438.33791395</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>89099229.33791395</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>91107390.50061394</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>90321876.17614934</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>88319972.12783028</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>87820655.83443028</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>87834382.50103028</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>86796302.08423027</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>87110636.17005599</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>86776977.78545599</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>86932977.78545599</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>86921892.23525599</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>87286123.7619378</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>87297255.9645378</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>86906479.87173779</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>86946779.64748809</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>87539518.95268808</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>87529518.95268808</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>87407230.85368808</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>87471250.36338808</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>87356307.90868808</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>87338748.63178809</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>87193942.60858808</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>87217971.01178809</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>87202011.01178809</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>87202111.01178809</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>87201752.77398808</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>87194172.01178809</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>87182581.30898808</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>35618920.8326</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>35647220.29700001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>35647210.29700001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35525210.29700001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>35496210.29700001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>35440296.4166</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>97069550.09690002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>97069550.09690002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>89099438.33791395</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>89099229.33791395</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>91107390.50061394</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>90321876.17614934</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>88319972.12783028</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>87820655.83443028</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>87834382.50103028</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>86686892.50103028</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>86796302.08423027</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>87110636.17005599</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>86778192.70745599</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>86776977.78545599</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>86932977.78545599</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>86921892.23525599</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>87597958.91603781</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>87597995.35323781</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>87597985.35323781</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>87602959.01603781</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>87742104.3203378</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>87584039.5006378</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>87286123.7619378</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>87297255.9645378</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>86906479.87173779</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>86929192.07233779</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>86946779.64748809</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>86934032.79038809</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>86937052.42958809</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>87353373.65278809</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>87263373.65278809</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>87803851.07758808</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>87421516.07758808</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>87395328.00518808</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>87615507.56418808</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>87541240.77828808</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>87539518.95268808</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>87529518.95268808</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>87407230.85368808</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>87471250.36338808</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>87356307.90868808</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>87338748.63178809</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>87193942.60858808</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>87217971.01178809</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>87202011.01178809</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>87201612.77398808</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
